--- a/1일차/코스피지수.xlsx
+++ b/1일차/코스피지수.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="201">
   <si>
     <t>종목명</t>
   </si>
@@ -25,601 +25,598 @@
     <t>KODEX 200선물인버스2X</t>
   </si>
   <si>
+    <t>KODEX 코스닥150선물인버스</t>
+  </si>
+  <si>
     <t>삼성 인버스 2X WTI원유 선물 ETN</t>
   </si>
   <si>
-    <t>KODEX 코스닥150선물인버스</t>
+    <t>KODEX 인버스</t>
+  </si>
+  <si>
+    <t>이엔플러스</t>
   </si>
   <si>
     <t>KODEX 레버리지</t>
   </si>
   <si>
-    <t>KODEX 인버스</t>
+    <t>TYM</t>
+  </si>
+  <si>
+    <t>KODEX 코스닥150레버리지</t>
+  </si>
+  <si>
+    <t>세원이앤씨</t>
+  </si>
+  <si>
+    <t>SJM홀딩스</t>
   </si>
   <si>
     <t>삼성전자</t>
   </si>
   <si>
-    <t>KODEX 코스닥150레버리지</t>
+    <t>대원화성</t>
+  </si>
+  <si>
+    <t>제주은행</t>
+  </si>
+  <si>
+    <t>페이퍼코리아</t>
+  </si>
+  <si>
+    <t>TRUE 인버스 2X 천연가스 선물 ETN(H)</t>
+  </si>
+  <si>
+    <t>대한해운</t>
+  </si>
+  <si>
+    <t>삼성중공업</t>
+  </si>
+  <si>
+    <t>TIGER 200선물인버스2X</t>
   </si>
   <si>
     <t>신한 인버스 2X 천연가스 선물 ETN</t>
   </si>
   <si>
-    <t>세원이앤씨</t>
+    <t>조일알미늄</t>
+  </si>
+  <si>
+    <t>덕성</t>
+  </si>
+  <si>
+    <t>사조동아원</t>
+  </si>
+  <si>
+    <t>대한전선</t>
+  </si>
+  <si>
+    <t>KODEX 코스닥150</t>
+  </si>
+  <si>
+    <t>팬오션</t>
+  </si>
+  <si>
+    <t>금양</t>
+  </si>
+  <si>
+    <t>KEC</t>
+  </si>
+  <si>
+    <t>KODEX 200</t>
+  </si>
+  <si>
+    <t>한미글로벌</t>
+  </si>
+  <si>
+    <t>에스엠벡셀</t>
+  </si>
+  <si>
+    <t>두산에너빌리티</t>
+  </si>
+  <si>
+    <t>TIGER 인버스</t>
+  </si>
+  <si>
+    <t>TIGER 원유선물인버스(H)</t>
+  </si>
+  <si>
+    <t>미래아이앤지</t>
+  </si>
+  <si>
+    <t>SJM</t>
+  </si>
+  <si>
+    <t>SK하이닉스</t>
+  </si>
+  <si>
+    <t>현대로템</t>
+  </si>
+  <si>
+    <t>태경비케이</t>
+  </si>
+  <si>
+    <t>화천기계</t>
+  </si>
+  <si>
+    <t>쌍방울</t>
+  </si>
+  <si>
+    <t>성안</t>
+  </si>
+  <si>
+    <t>한화솔루션</t>
+  </si>
+  <si>
+    <t>대우조선해양</t>
+  </si>
+  <si>
+    <t>에이프로젠</t>
+  </si>
+  <si>
+    <t>덕성우</t>
+  </si>
+  <si>
+    <t>한창</t>
+  </si>
+  <si>
+    <t>하이스틸</t>
+  </si>
+  <si>
+    <t>고려산업</t>
+  </si>
+  <si>
+    <t>KODEX WTI원유선물인버스(H)</t>
+  </si>
+  <si>
+    <t>형지엘리트</t>
+  </si>
+  <si>
+    <t>신성이엔지</t>
+  </si>
+  <si>
+    <t>TIGER 차이나전기차SOLACTIVE</t>
+  </si>
+  <si>
+    <t>코스모화학</t>
+  </si>
+  <si>
+    <t>우리금융지주</t>
+  </si>
+  <si>
+    <t>SK증권</t>
+  </si>
+  <si>
+    <t>현대두산인프라코어</t>
+  </si>
+  <si>
+    <t>SH에너지화학</t>
+  </si>
+  <si>
+    <t>HMM</t>
+  </si>
+  <si>
+    <t>대현</t>
   </si>
   <si>
     <t>신한 인버스 2X 천연가스 선물 ETN(H)</t>
   </si>
   <si>
-    <t>금양</t>
-  </si>
-  <si>
-    <t>HLB글로벌</t>
-  </si>
-  <si>
-    <t>현대로템</t>
-  </si>
-  <si>
-    <t>에스엠벡셀</t>
-  </si>
-  <si>
-    <t>대한전선</t>
-  </si>
-  <si>
     <t>신한 인버스 2X WTI원유 선물 ETN(H)</t>
   </si>
   <si>
-    <t>신성이엔지</t>
-  </si>
-  <si>
-    <t>대원화성</t>
-  </si>
-  <si>
-    <t>한화솔루션</t>
-  </si>
-  <si>
-    <t>팬오션</t>
+    <t>후성</t>
+  </si>
+  <si>
+    <t>TRUE 인버스 2X 나스닥 100 ETN</t>
+  </si>
+  <si>
+    <t>우리종금</t>
+  </si>
+  <si>
+    <t>TIGER 단기통안채</t>
+  </si>
+  <si>
+    <t>카카오뱅크</t>
+  </si>
+  <si>
+    <t>베트남개발1</t>
   </si>
   <si>
     <t>한국항공우주</t>
   </si>
   <si>
-    <t>TRUE 인버스 2X 천연가스 선물 ETN(H)</t>
-  </si>
-  <si>
-    <t>동국제강</t>
-  </si>
-  <si>
-    <t>조일알미늄</t>
-  </si>
-  <si>
-    <t>두산에너빌리티</t>
-  </si>
-  <si>
-    <t>코스모화학</t>
-  </si>
-  <si>
-    <t>동양</t>
+    <t>LG디스플레이</t>
+  </si>
+  <si>
+    <t>백광산업</t>
+  </si>
+  <si>
+    <t>대한항공</t>
+  </si>
+  <si>
+    <t>LG유플러스</t>
+  </si>
+  <si>
+    <t>TIGER 200</t>
   </si>
   <si>
     <t>한화에어로스페이스</t>
   </si>
   <si>
-    <t>HMM</t>
-  </si>
-  <si>
-    <t>쌍방울</t>
-  </si>
-  <si>
-    <t>삼성 레버리지 WTI원유 선물 ETN</t>
-  </si>
-  <si>
-    <t>QV 인버스 레버리지 WTI원유 선물 ETN(H)</t>
-  </si>
-  <si>
-    <t>KODEX 200</t>
-  </si>
-  <si>
-    <t>TIGER 원유선물인버스(H)</t>
-  </si>
-  <si>
-    <t>TIGER 200선물인버스2X</t>
-  </si>
-  <si>
-    <t>이스타코</t>
-  </si>
-  <si>
-    <t>현대제철</t>
-  </si>
-  <si>
-    <t>KEC</t>
+    <t>한신기계</t>
+  </si>
+  <si>
+    <t>KODEX 단기채권PLUS</t>
+  </si>
+  <si>
+    <t>삼성엔지니어링</t>
+  </si>
+  <si>
+    <t>KODEX 2차전지산업</t>
+  </si>
+  <si>
+    <t>한국전력</t>
+  </si>
+  <si>
+    <t>TIGER 화장품</t>
   </si>
   <si>
     <t>이수화학</t>
   </si>
   <si>
-    <t>SK하이닉스</t>
-  </si>
-  <si>
-    <t>혜인</t>
-  </si>
-  <si>
-    <t>TIGER 차이나전기차SOLACTIVE</t>
-  </si>
-  <si>
-    <t>삼성중공업</t>
-  </si>
-  <si>
-    <t>KODEX 2차전지산업</t>
-  </si>
-  <si>
-    <t>한화생명</t>
-  </si>
-  <si>
-    <t>우리금융지주</t>
-  </si>
-  <si>
-    <t>수산중공업</t>
-  </si>
-  <si>
-    <t>KODEX WTI원유선물인버스(H)</t>
-  </si>
-  <si>
-    <t>카카오뱅크</t>
-  </si>
-  <si>
-    <t>베트남개발1</t>
-  </si>
-  <si>
-    <t>KODEX 코스닥150</t>
-  </si>
-  <si>
-    <t>다스코</t>
-  </si>
-  <si>
-    <t>KG스틸</t>
+    <t>TIGER 미국S&amp;P500</t>
+  </si>
+  <si>
+    <t>한국종합기술</t>
+  </si>
+  <si>
+    <t>TIGER 미국나스닥100레버리지(합성)</t>
+  </si>
+  <si>
+    <t>KODEX 미국나스닥100레버리지(합성 H)</t>
   </si>
   <si>
     <t>카카오</t>
   </si>
   <si>
-    <t>KODEX 미국나스닥100레버리지(합성 H)</t>
-  </si>
-  <si>
-    <t>한미글로벌</t>
-  </si>
-  <si>
-    <t>후성</t>
-  </si>
-  <si>
-    <t>현대두산인프라코어</t>
-  </si>
-  <si>
-    <t>신한 레버리지 WTI원유 선물 ETN(H)</t>
+    <t>티에이치엔</t>
+  </si>
+  <si>
+    <t>KB금융</t>
+  </si>
+  <si>
+    <t>유니온머티리얼</t>
+  </si>
+  <si>
+    <t>KODEX 미국달러선물인버스2X</t>
+  </si>
+  <si>
+    <t>대창</t>
+  </si>
+  <si>
+    <t>보령</t>
+  </si>
+  <si>
+    <t>이수페타시스</t>
+  </si>
+  <si>
+    <t>부산주공</t>
+  </si>
+  <si>
+    <t>동양철관</t>
+  </si>
+  <si>
+    <t>GS글로벌</t>
+  </si>
+  <si>
+    <t>서울식품</t>
   </si>
   <si>
     <t>삼부토건</t>
   </si>
   <si>
-    <t>진원생명과학</t>
-  </si>
-  <si>
-    <t>TIGER 단기통안채</t>
-  </si>
-  <si>
-    <t>GS글로벌</t>
-  </si>
-  <si>
-    <t>에이프로젠</t>
-  </si>
-  <si>
-    <t>휴스틸</t>
-  </si>
-  <si>
-    <t>대우건설</t>
-  </si>
-  <si>
-    <t>대한항공</t>
-  </si>
-  <si>
     <t>하나금융지주</t>
   </si>
   <si>
-    <t>SH에너지화학</t>
-  </si>
-  <si>
-    <t>하이스틸</t>
-  </si>
-  <si>
-    <t>대한해운</t>
-  </si>
-  <si>
-    <t>제이알글로벌리츠</t>
-  </si>
-  <si>
-    <t>KB금융</t>
-  </si>
-  <si>
-    <t>기아</t>
-  </si>
-  <si>
-    <t>TYM</t>
-  </si>
-  <si>
-    <t>신원</t>
-  </si>
-  <si>
-    <t>TIGER 인버스</t>
-  </si>
-  <si>
-    <t>포스코케미칼</t>
-  </si>
-  <si>
-    <t>미래아이앤지</t>
-  </si>
-  <si>
-    <t>도화엔지니어링</t>
-  </si>
-  <si>
-    <t>사조동아원</t>
-  </si>
-  <si>
-    <t>미래에셋증권</t>
-  </si>
-  <si>
-    <t>KODEX 은선물(H)</t>
-  </si>
-  <si>
-    <t>KODEX 미국달러선물인버스2X</t>
-  </si>
-  <si>
-    <t>제주은행</t>
-  </si>
-  <si>
-    <t>신한지주</t>
-  </si>
-  <si>
-    <t>TIGER 미국S&amp;P500</t>
-  </si>
-  <si>
-    <t>동양철관</t>
-  </si>
-  <si>
-    <t>TRUE 인버스 2X 나스닥 100 ETN</t>
-  </si>
-  <si>
-    <t>TIGER KRX2차전지K-뉴딜</t>
-  </si>
-  <si>
-    <t>BNK금융지주</t>
-  </si>
-  <si>
-    <t>서울식품</t>
-  </si>
-  <si>
-    <t>한창</t>
-  </si>
-  <si>
-    <t>한솔홈데코</t>
-  </si>
-  <si>
-    <t>삼성엔지니어링</t>
-  </si>
-  <si>
-    <t>콘텐트리중앙</t>
-  </si>
-  <si>
-    <t>조광페인트</t>
-  </si>
-  <si>
-    <t>HSD엔진</t>
-  </si>
-  <si>
-    <t>명신산업</t>
-  </si>
-  <si>
-    <t>TIGER 미국필라델피아반도체나스닥</t>
+    <t>KODEX 200IT TR</t>
+  </si>
+  <si>
+    <t>3,345</t>
+  </si>
+  <si>
+    <t>5,235</t>
+  </si>
+  <si>
+    <t>145</t>
+  </si>
+  <si>
+    <t>5,065</t>
+  </si>
+  <si>
+    <t>4,095</t>
+  </si>
+  <si>
+    <t>13,825</t>
+  </si>
+  <si>
+    <t>2,440</t>
+  </si>
+  <si>
+    <t>7,590</t>
+  </si>
+  <si>
+    <t>902</t>
+  </si>
+  <si>
+    <t>4,580</t>
+  </si>
+  <si>
+    <t>55,300</t>
+  </si>
+  <si>
+    <t>3,385</t>
+  </si>
+  <si>
+    <t>8,560</t>
+  </si>
+  <si>
+    <t>1,690</t>
+  </si>
+  <si>
+    <t>310</t>
+  </si>
+  <si>
+    <t>2,355</t>
+  </si>
+  <si>
+    <t>5,780</t>
+  </si>
+  <si>
+    <t>3,500</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>2,345</t>
+  </si>
+  <si>
+    <t>6,080</t>
+  </si>
+  <si>
+    <t>1,280</t>
+  </si>
+  <si>
+    <t>1,590</t>
+  </si>
+  <si>
+    <t>10,495</t>
+  </si>
+  <si>
+    <t>5,480</t>
+  </si>
+  <si>
+    <t>17,200</t>
+  </si>
+  <si>
+    <t>2,920</t>
+  </si>
+  <si>
+    <t>30,480</t>
+  </si>
+  <si>
+    <t>22,750</t>
+  </si>
+  <si>
+    <t>2,340</t>
+  </si>
+  <si>
+    <t>17,250</t>
+  </si>
+  <si>
+    <t>5,640</t>
+  </si>
+  <si>
+    <t>3,315</t>
+  </si>
+  <si>
+    <t>246</t>
+  </si>
+  <si>
+    <t>4,060</t>
+  </si>
+  <si>
+    <t>88,000</t>
+  </si>
+  <si>
+    <t>28,850</t>
+  </si>
+  <si>
+    <t>5,830</t>
+  </si>
+  <si>
+    <t>6,820</t>
+  </si>
+  <si>
+    <t>455</t>
+  </si>
+  <si>
+    <t>1,075</t>
+  </si>
+  <si>
+    <t>49,350</t>
+  </si>
+  <si>
+    <t>21,350</t>
+  </si>
+  <si>
+    <t>1,090</t>
+  </si>
+  <si>
+    <t>9,990</t>
+  </si>
+  <si>
+    <t>4,515</t>
+  </si>
+  <si>
+    <t>5,460</t>
+  </si>
+  <si>
+    <t>4,740</t>
+  </si>
+  <si>
+    <t>1,465</t>
+  </si>
+  <si>
+    <t>2,150</t>
+  </si>
+  <si>
+    <t>14,280</t>
+  </si>
+  <si>
+    <t>27,250</t>
+  </si>
+  <si>
+    <t>11,800</t>
+  </si>
+  <si>
+    <t>720</t>
+  </si>
+  <si>
+    <t>5,220</t>
+  </si>
+  <si>
+    <t>1,050</t>
+  </si>
+  <si>
+    <t>20,400</t>
+  </si>
+  <si>
+    <t>2,430</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>14,050</t>
+  </si>
+  <si>
+    <t>2,370</t>
+  </si>
+  <si>
+    <t>851</t>
+  </si>
+  <si>
+    <t>101,315</t>
+  </si>
+  <si>
+    <t>25,050</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>51,000</t>
+  </si>
+  <si>
+    <t>14,000</t>
+  </si>
+  <si>
+    <t>5,130</t>
+  </si>
+  <si>
+    <t>25,900</t>
+  </si>
+  <si>
+    <t>11,550</t>
+  </si>
+  <si>
+    <t>30,505</t>
+  </si>
+  <si>
+    <t>73,800</t>
+  </si>
+  <si>
+    <t>7,310</t>
+  </si>
+  <si>
+    <t>104,185</t>
+  </si>
+  <si>
+    <t>23,250</t>
+  </si>
+  <si>
+    <t>19,950</t>
+  </si>
+  <si>
+    <t>19,750</t>
+  </si>
+  <si>
+    <t>2,225</t>
+  </si>
+  <si>
+    <t>27,450</t>
+  </si>
+  <si>
+    <t>13,495</t>
+  </si>
+  <si>
+    <t>7,690</t>
+  </si>
+  <si>
+    <t>9,220</t>
+  </si>
+  <si>
+    <t>4,785</t>
+  </si>
+  <si>
+    <t>64,000</t>
+  </si>
+  <si>
+    <t>3,775</t>
+  </si>
+  <si>
+    <t>48,800</t>
+  </si>
+  <si>
+    <t>2,860</t>
+  </si>
+  <si>
+    <t>6,280</t>
+  </si>
+  <si>
+    <t>1,440</t>
+  </si>
+  <si>
+    <t>10,750</t>
+  </si>
+  <si>
+    <t>5,890</t>
+  </si>
+  <si>
+    <t>749</t>
+  </si>
+  <si>
+    <t>1,100</t>
   </si>
   <si>
     <t>3,085</t>
   </si>
   <si>
-    <t>145</t>
-  </si>
-  <si>
-    <t>4,835</t>
-  </si>
-  <si>
-    <t>15,040</t>
-  </si>
-  <si>
-    <t>4,855</t>
-  </si>
-  <si>
-    <t>57,800</t>
-  </si>
-  <si>
-    <t>8,865</t>
-  </si>
-  <si>
-    <t>165</t>
-  </si>
-  <si>
-    <t>792</t>
-  </si>
-  <si>
-    <t>95</t>
-  </si>
-  <si>
-    <t>16,750</t>
-  </si>
-  <si>
-    <t>10,050</t>
-  </si>
-  <si>
-    <t>28,050</t>
-  </si>
-  <si>
-    <t>2,775</t>
-  </si>
-  <si>
-    <t>1,685</t>
-  </si>
-  <si>
-    <t>125</t>
-  </si>
-  <si>
-    <t>2,420</t>
-  </si>
-  <si>
-    <t>3,005</t>
-  </si>
-  <si>
-    <t>52,400</t>
-  </si>
-  <si>
-    <t>5,130</t>
-  </si>
-  <si>
-    <t>53,000</t>
-  </si>
-  <si>
-    <t>295</t>
-  </si>
-  <si>
-    <t>14,400</t>
-  </si>
-  <si>
-    <t>2,295</t>
-  </si>
-  <si>
-    <t>17,950</t>
-  </si>
-  <si>
-    <t>28,250</t>
-  </si>
-  <si>
-    <t>1,130</t>
-  </si>
-  <si>
-    <t>77,000</t>
-  </si>
-  <si>
-    <t>21,050</t>
-  </si>
-  <si>
-    <t>484</t>
-  </si>
-  <si>
-    <t>1,825</t>
-  </si>
-  <si>
-    <t>115</t>
-  </si>
-  <si>
-    <t>31,765</t>
-  </si>
-  <si>
-    <t>3,260</t>
-  </si>
-  <si>
-    <t>3,230</t>
-  </si>
-  <si>
-    <t>1,220</t>
-  </si>
-  <si>
-    <t>36,000</t>
-  </si>
-  <si>
-    <t>2,800</t>
-  </si>
-  <si>
-    <t>30,550</t>
-  </si>
-  <si>
-    <t>93,700</t>
-  </si>
-  <si>
-    <t>7,220</t>
-  </si>
-  <si>
-    <t>14,925</t>
-  </si>
-  <si>
-    <t>5,700</t>
-  </si>
-  <si>
-    <t>20,395</t>
-  </si>
-  <si>
-    <t>2,485</t>
-  </si>
-  <si>
-    <t>11,700</t>
-  </si>
-  <si>
-    <t>2,990</t>
-  </si>
-  <si>
-    <t>4,685</t>
-  </si>
-  <si>
-    <t>26,300</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>11,340</t>
-  </si>
-  <si>
-    <t>6,180</t>
-  </si>
-  <si>
-    <t>10,550</t>
-  </si>
-  <si>
-    <t>69,400</t>
-  </si>
-  <si>
-    <t>5,525</t>
-  </si>
-  <si>
-    <t>23,000</t>
-  </si>
-  <si>
-    <t>16,250</t>
-  </si>
-  <si>
-    <t>5,410</t>
-  </si>
-  <si>
-    <t>1,265</t>
-  </si>
-  <si>
-    <t>1,905</t>
-  </si>
-  <si>
-    <t>10,850</t>
-  </si>
-  <si>
-    <t>101,275</t>
-  </si>
-  <si>
-    <t>3,420</t>
-  </si>
-  <si>
-    <t>1,295</t>
-  </si>
-  <si>
-    <t>8,450</t>
-  </si>
-  <si>
-    <t>5,010</t>
-  </si>
-  <si>
-    <t>26,250</t>
-  </si>
-  <si>
-    <t>38,650</t>
-  </si>
-  <si>
-    <t>1,135</t>
-  </si>
-  <si>
-    <t>4,320</t>
-  </si>
-  <si>
-    <t>2,210</t>
-  </si>
-  <si>
-    <t>4,830</t>
-  </si>
-  <si>
-    <t>50,000</t>
-  </si>
-  <si>
-    <t>80,500</t>
-  </si>
-  <si>
-    <t>2,405</t>
-  </si>
-  <si>
-    <t>1,680</t>
-  </si>
-  <si>
-    <t>5,415</t>
-  </si>
-  <si>
-    <t>179,500</t>
-  </si>
-  <si>
-    <t>283</t>
-  </si>
-  <si>
-    <t>9,580</t>
-  </si>
-  <si>
-    <t>1,330</t>
-  </si>
-  <si>
-    <t>6,740</t>
-  </si>
-  <si>
-    <t>3,935</t>
-  </si>
-  <si>
-    <t>6,480</t>
-  </si>
-  <si>
-    <t>6,780</t>
-  </si>
-  <si>
-    <t>35,800</t>
-  </si>
-  <si>
-    <t>14,180</t>
-  </si>
-  <si>
-    <t>1,125</t>
-  </si>
-  <si>
-    <t>2,035</t>
-  </si>
-  <si>
-    <t>14,890</t>
-  </si>
-  <si>
-    <t>6,660</t>
-  </si>
-  <si>
-    <t>244</t>
-  </si>
-  <si>
-    <t>1,030</t>
-  </si>
-  <si>
-    <t>1,335</t>
-  </si>
-  <si>
-    <t>22,850</t>
-  </si>
-  <si>
-    <t>40,800</t>
+    <t>238</t>
+  </si>
+  <si>
+    <t>1,755</t>
+  </si>
+  <si>
+    <t>38,350</t>
   </si>
   <si>
     <t>10,300</t>
-  </si>
-  <si>
-    <t>8,070</t>
-  </si>
-  <si>
-    <t>24,300</t>
-  </si>
-  <si>
-    <t>10,045</t>
   </si>
 </sst>
 </file>
@@ -1494,7 +1491,7 @@
         <v>47</v>
       </c>
       <c r="C47" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1505,7 +1502,7 @@
         <v>48</v>
       </c>
       <c r="C48" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1516,7 +1513,7 @@
         <v>49</v>
       </c>
       <c r="C49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1527,7 +1524,7 @@
         <v>50</v>
       </c>
       <c r="C50" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1538,7 +1535,7 @@
         <v>51</v>
       </c>
       <c r="C51" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1549,7 +1546,7 @@
         <v>52</v>
       </c>
       <c r="C52" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1560,7 +1557,7 @@
         <v>53</v>
       </c>
       <c r="C53" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1571,7 +1568,7 @@
         <v>54</v>
       </c>
       <c r="C54" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1582,7 +1579,7 @@
         <v>55</v>
       </c>
       <c r="C55" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1593,7 +1590,7 @@
         <v>56</v>
       </c>
       <c r="C56" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1604,7 +1601,7 @@
         <v>57</v>
       </c>
       <c r="C57" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1615,7 +1612,7 @@
         <v>58</v>
       </c>
       <c r="C58" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1626,7 +1623,7 @@
         <v>59</v>
       </c>
       <c r="C59" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1637,7 +1634,7 @@
         <v>60</v>
       </c>
       <c r="C60" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1648,7 +1645,7 @@
         <v>61</v>
       </c>
       <c r="C61" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1659,7 +1656,7 @@
         <v>62</v>
       </c>
       <c r="C62" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1670,7 +1667,7 @@
         <v>63</v>
       </c>
       <c r="C63" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1681,7 +1678,7 @@
         <v>64</v>
       </c>
       <c r="C64" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1692,7 +1689,7 @@
         <v>65</v>
       </c>
       <c r="C65" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1703,7 +1700,7 @@
         <v>66</v>
       </c>
       <c r="C66" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1714,7 +1711,7 @@
         <v>67</v>
       </c>
       <c r="C67" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1725,7 +1722,7 @@
         <v>68</v>
       </c>
       <c r="C68" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1736,7 +1733,7 @@
         <v>69</v>
       </c>
       <c r="C69" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1747,7 +1744,7 @@
         <v>70</v>
       </c>
       <c r="C70" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1758,7 +1755,7 @@
         <v>71</v>
       </c>
       <c r="C71" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1769,7 +1766,7 @@
         <v>72</v>
       </c>
       <c r="C72" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1780,7 +1777,7 @@
         <v>73</v>
       </c>
       <c r="C73" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1791,7 +1788,7 @@
         <v>74</v>
       </c>
       <c r="C74" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1802,7 +1799,7 @@
         <v>75</v>
       </c>
       <c r="C75" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1813,7 +1810,7 @@
         <v>76</v>
       </c>
       <c r="C76" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1824,7 +1821,7 @@
         <v>77</v>
       </c>
       <c r="C77" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1835,7 +1832,7 @@
         <v>78</v>
       </c>
       <c r="C78" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1846,7 +1843,7 @@
         <v>79</v>
       </c>
       <c r="C79" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1857,7 +1854,7 @@
         <v>80</v>
       </c>
       <c r="C80" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1868,7 +1865,7 @@
         <v>81</v>
       </c>
       <c r="C81" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1879,7 +1876,7 @@
         <v>82</v>
       </c>
       <c r="C82" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1890,7 +1887,7 @@
         <v>83</v>
       </c>
       <c r="C83" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1901,7 +1898,7 @@
         <v>84</v>
       </c>
       <c r="C84" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1912,7 +1909,7 @@
         <v>85</v>
       </c>
       <c r="C85" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1923,7 +1920,7 @@
         <v>86</v>
       </c>
       <c r="C86" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1934,7 +1931,7 @@
         <v>87</v>
       </c>
       <c r="C87" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1945,7 +1942,7 @@
         <v>88</v>
       </c>
       <c r="C88" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1956,7 +1953,7 @@
         <v>89</v>
       </c>
       <c r="C89" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1967,7 +1964,7 @@
         <v>90</v>
       </c>
       <c r="C90" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1978,7 +1975,7 @@
         <v>91</v>
       </c>
       <c r="C91" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1989,7 +1986,7 @@
         <v>92</v>
       </c>
       <c r="C92" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -2000,7 +1997,7 @@
         <v>93</v>
       </c>
       <c r="C93" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -2011,7 +2008,7 @@
         <v>94</v>
       </c>
       <c r="C94" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -2022,7 +2019,7 @@
         <v>95</v>
       </c>
       <c r="C95" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -2033,7 +2030,7 @@
         <v>96</v>
       </c>
       <c r="C96" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -2044,7 +2041,7 @@
         <v>97</v>
       </c>
       <c r="C97" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -2055,7 +2052,7 @@
         <v>98</v>
       </c>
       <c r="C98" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -2066,7 +2063,7 @@
         <v>99</v>
       </c>
       <c r="C99" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -2077,7 +2074,7 @@
         <v>100</v>
       </c>
       <c r="C100" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -2088,7 +2085,7 @@
         <v>101</v>
       </c>
       <c r="C101" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
